--- a/biology/Botanique/Rousse_de_Saint-Léonard/Rousse_de_Saint-Léonard.xlsx
+++ b/biology/Botanique/Rousse_de_Saint-Léonard/Rousse_de_Saint-Léonard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rousse_de_Saint-L%C3%A9onard</t>
+          <t>Rousse_de_Saint-Léonard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Rousse de Saint Léonard (ou Rousso, de Rossa en occitan limousin : jaune / dorée) est une variété de châtaigne de la commune limousine de Saint-Léonard-de-Noblat[1]. 
+La Rousse de Saint Léonard (ou Rousso, de Rossa en occitan limousin : jaune / dorée) est une variété de châtaigne de la commune limousine de Saint-Léonard-de-Noblat. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rousse_de_Saint-L%C3%A9onard</t>
+          <t>Rousse_de_Saint-Léonard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle fut répertoriée pour la première fois en 1840 par Edouard Lamy, habitant de la commune [2]. Aujourd'hui des passionnés tentent de sauver cette variété. Il n'y a plus à ce jour qu'un châtaignier à rousse ancien connu sur la commune.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fut répertoriée pour la première fois en 1840 par Edouard Lamy, habitant de la commune . Aujourd'hui des passionnés tentent de sauver cette variété. Il n'y a plus à ce jour qu'un châtaignier à rousse ancien connu sur la commune.
 Les châtaigneraies à rousse pouvaient être appelées rossiera en occitan limousin.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rousse_de_Saint-L%C3%A9onard</t>
+          <t>Rousse_de_Saint-Léonard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rousse_de_Saint-L%C3%A9onard</t>
+          <t>Rousse_de_Saint-Léonard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,6 +587,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
